--- a/PROJECTS MACRO/Profit Loss/Tarikan JDE/1201.808100.xlsx
+++ b/PROJECTS MACRO/Profit Loss/Tarikan JDE/1201.808100.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.8.0.35\rpa$\RPA Excel Template\Accounting Finance\Santy\Profit Loss\Tarikan JDE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{128EE7E4-3AE0-439D-9690-C6DC44E80181}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D6E3062-4BE3-4A50-A614-F4F01D6E1B48}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
-    <sheet name="Book1 - 2024-02-18T063109.644" sheetId="1" r:id="rId1"/>
+    <sheet name="Book1 - 2024-02-24T062422.613" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="76">
   <si>
     <t>Do Ty</t>
   </si>
@@ -233,6 +233,9 @@
   </si>
   <si>
     <t>BENSIN CLN 05-02 SD 09-02-2024</t>
+  </si>
+  <si>
+    <t>BENSIN CLN 13-02 SD 17-02-2024</t>
   </si>
   <si>
     <t>Column Total</t>
@@ -1087,7 +1090,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ8"/>
+  <dimension ref="A1:AZ9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1654,23 +1657,137 @@
       </c>
     </row>
     <row r="5" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5">
+        <v>24001722</v>
+      </c>
+      <c r="D5">
+        <v>1201</v>
+      </c>
+      <c r="E5" s="1">
+        <v>45344</v>
+      </c>
       <c r="F5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5">
+        <v>106.8</v>
+      </c>
+      <c r="H5">
+        <v>106.8</v>
+      </c>
+      <c r="I5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J5" t="s">
+        <v>55</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1687756</v>
+      </c>
+      <c r="N5" s="2">
+        <v>1687756</v>
+      </c>
+      <c r="O5" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>56</v>
+      </c>
+      <c r="R5" t="s">
+        <v>57</v>
+      </c>
+      <c r="S5">
+        <v>15803</v>
+      </c>
+      <c r="T5" t="s">
+        <v>58</v>
+      </c>
+      <c r="U5" t="s">
+        <v>59</v>
+      </c>
+      <c r="V5" t="s">
+        <v>60</v>
+      </c>
+      <c r="W5" t="s">
+        <v>61</v>
+      </c>
+      <c r="X5">
+        <v>2105143</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>45344</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA5">
+        <v>1</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG5">
+        <v>1</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI5">
+        <v>56807057</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM5" s="1">
+        <v>45344</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP5">
+        <v>1201</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR5" t="s">
         <v>71</v>
       </c>
-      <c r="G5">
-        <v>527.75</v>
-      </c>
-      <c r="H5">
-        <v>527.75</v>
-      </c>
-      <c r="L5" s="2">
-        <v>8340036</v>
-      </c>
-      <c r="N5" s="2">
-        <v>8340036</v>
-      </c>
-      <c r="AG5">
-        <v>3</v>
+      <c r="AU5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX5">
+        <v>24001243</v>
+      </c>
+      <c r="AY5">
+        <v>808100</v>
+      </c>
+      <c r="AZ5">
+        <v>1201.8081</v>
       </c>
     </row>
     <row r="6" spans="1:52" x14ac:dyDescent="0.25">
@@ -1678,19 +1795,19 @@
         <v>72</v>
       </c>
       <c r="G6">
-        <v>527.75</v>
+        <v>634.54999999999995</v>
       </c>
       <c r="H6">
-        <v>527.75</v>
+        <v>634.54999999999995</v>
       </c>
       <c r="L6" s="2">
-        <v>8340036</v>
+        <v>10027792</v>
       </c>
       <c r="N6" s="2">
-        <v>8340036</v>
+        <v>10027792</v>
       </c>
       <c r="AG6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:52" x14ac:dyDescent="0.25">
@@ -1698,24 +1815,44 @@
         <v>73</v>
       </c>
       <c r="G7">
-        <v>527.75</v>
+        <v>634.54999999999995</v>
       </c>
       <c r="H7">
-        <v>527.75</v>
+        <v>634.54999999999995</v>
       </c>
       <c r="L7" s="2">
-        <v>8340036</v>
+        <v>10027792</v>
       </c>
       <c r="N7" s="2">
-        <v>8340036</v>
+        <v>10027792</v>
       </c>
       <c r="AG7">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:52" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
         <v>74</v>
+      </c>
+      <c r="G8">
+        <v>634.54999999999995</v>
+      </c>
+      <c r="H8">
+        <v>634.54999999999995</v>
+      </c>
+      <c r="L8" s="2">
+        <v>10027792</v>
+      </c>
+      <c r="N8" s="2">
+        <v>10027792</v>
+      </c>
+      <c r="AG8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/PROJECTS MACRO/Profit Loss/Tarikan JDE/1201.808100.xlsx
+++ b/PROJECTS MACRO/Profit Loss/Tarikan JDE/1201.808100.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.8.0.35\rpa$\RPA Excel Template\Accounting Finance\Santy\Profit Loss\Tarikan JDE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D6E3062-4BE3-4A50-A614-F4F01D6E1B48}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E085346E-3CC4-41D3-90ED-CF757AB44D4F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
-    <sheet name="Book1 - 2024-02-24T062422.613" sheetId="1" r:id="rId1"/>
+    <sheet name="Book1 - 2024-03-03T062512.759" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="77">
   <si>
     <t>Do Ty</t>
   </si>
@@ -236,6 +236,9 @@
   </si>
   <si>
     <t>BENSIN CLN 13-02 SD 17-02-2024</t>
+  </si>
+  <si>
+    <t>BENSIN CLN TGL 02-01 SD 04-01</t>
   </si>
   <si>
     <t>Column Total</t>
@@ -1090,7 +1093,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ9"/>
+  <dimension ref="A1:AZ10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1791,23 +1794,137 @@
       </c>
     </row>
     <row r="6" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6">
+        <v>24001736</v>
+      </c>
+      <c r="D6">
+        <v>1201</v>
+      </c>
+      <c r="E6" s="1">
+        <v>45348</v>
+      </c>
       <c r="F6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6">
+        <v>77.16</v>
+      </c>
+      <c r="H6">
+        <v>77.16</v>
+      </c>
+      <c r="I6" t="s">
+        <v>55</v>
+      </c>
+      <c r="J6" t="s">
+        <v>55</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1219328</v>
+      </c>
+      <c r="N6" s="2">
+        <v>1219328</v>
+      </c>
+      <c r="O6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>56</v>
+      </c>
+      <c r="R6" t="s">
+        <v>57</v>
+      </c>
+      <c r="S6">
+        <v>15803</v>
+      </c>
+      <c r="T6" t="s">
+        <v>58</v>
+      </c>
+      <c r="U6" t="s">
+        <v>59</v>
+      </c>
+      <c r="V6" t="s">
+        <v>60</v>
+      </c>
+      <c r="W6" t="s">
+        <v>61</v>
+      </c>
+      <c r="X6">
+        <v>2105422</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>45348</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA6">
+        <v>1</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG6">
+        <v>1</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI6">
+        <v>56807057</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM6" s="1">
+        <v>45348</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP6">
+        <v>1201</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR6" t="s">
         <v>72</v>
       </c>
-      <c r="G6">
-        <v>634.54999999999995</v>
-      </c>
-      <c r="H6">
-        <v>634.54999999999995</v>
-      </c>
-      <c r="L6" s="2">
-        <v>10027792</v>
-      </c>
-      <c r="N6" s="2">
-        <v>10027792</v>
-      </c>
-      <c r="AG6">
-        <v>4</v>
+      <c r="AU6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX6">
+        <v>24001023</v>
+      </c>
+      <c r="AY6">
+        <v>808100</v>
+      </c>
+      <c r="AZ6">
+        <v>1201.8081</v>
       </c>
     </row>
     <row r="7" spans="1:52" x14ac:dyDescent="0.25">
@@ -1815,19 +1932,19 @@
         <v>73</v>
       </c>
       <c r="G7">
-        <v>634.54999999999995</v>
+        <v>711.71</v>
       </c>
       <c r="H7">
-        <v>634.54999999999995</v>
+        <v>711.71</v>
       </c>
       <c r="L7" s="2">
-        <v>10027792</v>
+        <v>11247120</v>
       </c>
       <c r="N7" s="2">
-        <v>10027792</v>
+        <v>11247120</v>
       </c>
       <c r="AG7">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:52" x14ac:dyDescent="0.25">
@@ -1835,24 +1952,44 @@
         <v>74</v>
       </c>
       <c r="G8">
-        <v>634.54999999999995</v>
+        <v>711.71</v>
       </c>
       <c r="H8">
-        <v>634.54999999999995</v>
+        <v>711.71</v>
       </c>
       <c r="L8" s="2">
-        <v>10027792</v>
+        <v>11247120</v>
       </c>
       <c r="N8" s="2">
-        <v>10027792</v>
+        <v>11247120</v>
       </c>
       <c r="AG8">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:52" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
         <v>75</v>
+      </c>
+      <c r="G9">
+        <v>711.71</v>
+      </c>
+      <c r="H9">
+        <v>711.71</v>
+      </c>
+      <c r="L9" s="2">
+        <v>11247120</v>
+      </c>
+      <c r="N9" s="2">
+        <v>11247120</v>
+      </c>
+      <c r="AG9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
